--- a/instance_generator/analysis/START_16_SEC_0.5_ENERGY_1.5_EV-FACTOR_16_EV_10_FLEX_300_TPS.xlsx
+++ b/instance_generator/analysis/START_16_SEC_0.5_ENERGY_1.5_EV-FACTOR_16_EV_10_FLEX_300_TPS.xlsx
@@ -466,7 +466,7 @@
         <v>560</v>
       </c>
       <c r="D2" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         <v>560</v>
       </c>
       <c r="D3" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="4">
@@ -494,7 +494,7 @@
         <v>560</v>
       </c>
       <c r="D4" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="5">
@@ -508,7 +508,7 @@
         <v>560</v>
       </c>
       <c r="D5" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         <v>560</v>
       </c>
       <c r="D6" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="7">
@@ -536,7 +536,7 @@
         <v>560</v>
       </c>
       <c r="D7" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="8">
@@ -550,7 +550,7 @@
         <v>560</v>
       </c>
       <c r="D8" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="9">
@@ -564,7 +564,7 @@
         <v>560</v>
       </c>
       <c r="D9" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="10">
@@ -578,7 +578,7 @@
         <v>560</v>
       </c>
       <c r="D10" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="11">
@@ -592,7 +592,7 @@
         <v>560</v>
       </c>
       <c r="D11" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="12">
@@ -606,7 +606,7 @@
         <v>560</v>
       </c>
       <c r="D12" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="13">
@@ -620,7 +620,7 @@
         <v>560</v>
       </c>
       <c r="D13" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="14">
@@ -634,7 +634,7 @@
         <v>560</v>
       </c>
       <c r="D14" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="15">
@@ -648,7 +648,7 @@
         <v>560</v>
       </c>
       <c r="D15" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="16">
@@ -662,7 +662,7 @@
         <v>560</v>
       </c>
       <c r="D16" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="17">
@@ -676,7 +676,7 @@
         <v>560</v>
       </c>
       <c r="D17" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="18">
@@ -690,7 +690,7 @@
         <v>560</v>
       </c>
       <c r="D18" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="19">
@@ -704,7 +704,7 @@
         <v>560</v>
       </c>
       <c r="D19" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="20">
@@ -718,7 +718,7 @@
         <v>560</v>
       </c>
       <c r="D20" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="21">
@@ -732,7 +732,7 @@
         <v>560</v>
       </c>
       <c r="D21" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="22">
@@ -746,7 +746,7 @@
         <v>560</v>
       </c>
       <c r="D22" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="23">
@@ -760,7 +760,7 @@
         <v>560</v>
       </c>
       <c r="D23" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="24">
@@ -774,7 +774,7 @@
         <v>560</v>
       </c>
       <c r="D24" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="25">
@@ -788,7 +788,7 @@
         <v>560</v>
       </c>
       <c r="D25" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="26">
@@ -802,7 +802,7 @@
         <v>560</v>
       </c>
       <c r="D26" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="27">
@@ -816,7 +816,7 @@
         <v>560</v>
       </c>
       <c r="D27" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="28">
@@ -830,7 +830,7 @@
         <v>560</v>
       </c>
       <c r="D28" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="29">
@@ -844,7 +844,7 @@
         <v>560</v>
       </c>
       <c r="D29" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="30">
@@ -858,7 +858,7 @@
         <v>560</v>
       </c>
       <c r="D30" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="31">
@@ -872,7 +872,7 @@
         <v>560</v>
       </c>
       <c r="D31" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="32">
@@ -886,7 +886,7 @@
         <v>560</v>
       </c>
       <c r="D32" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="33">
@@ -900,7 +900,7 @@
         <v>560</v>
       </c>
       <c r="D33" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="34">
@@ -914,7 +914,7 @@
         <v>560</v>
       </c>
       <c r="D34" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="35">
@@ -928,7 +928,7 @@
         <v>560</v>
       </c>
       <c r="D35" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="36">
@@ -942,7 +942,7 @@
         <v>560</v>
       </c>
       <c r="D36" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="37">
@@ -956,7 +956,7 @@
         <v>560</v>
       </c>
       <c r="D37" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="38">
@@ -970,7 +970,7 @@
         <v>560</v>
       </c>
       <c r="D38" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="39">
@@ -984,7 +984,7 @@
         <v>560</v>
       </c>
       <c r="D39" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="40">
@@ -998,7 +998,7 @@
         <v>560</v>
       </c>
       <c r="D40" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="41">
@@ -1012,7 +1012,7 @@
         <v>560</v>
       </c>
       <c r="D41" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="42">
@@ -1026,7 +1026,7 @@
         <v>560</v>
       </c>
       <c r="D42" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="43">
@@ -1040,7 +1040,7 @@
         <v>560</v>
       </c>
       <c r="D43" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="44">
@@ -1054,7 +1054,7 @@
         <v>560</v>
       </c>
       <c r="D44" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="45">
@@ -1068,7 +1068,7 @@
         <v>560</v>
       </c>
       <c r="D45" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="46">
@@ -1082,7 +1082,7 @@
         <v>560</v>
       </c>
       <c r="D46" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="47">
@@ -1096,7 +1096,7 @@
         <v>560</v>
       </c>
       <c r="D47" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="48">
@@ -1110,7 +1110,7 @@
         <v>560</v>
       </c>
       <c r="D48" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>560</v>
       </c>
       <c r="D49" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="50">
@@ -1138,7 +1138,7 @@
         <v>560</v>
       </c>
       <c r="D50" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="51">
@@ -1152,7 +1152,7 @@
         <v>560</v>
       </c>
       <c r="D51" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="52">
@@ -1166,7 +1166,7 @@
         <v>560</v>
       </c>
       <c r="D52" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="53">
@@ -1180,7 +1180,7 @@
         <v>560</v>
       </c>
       <c r="D53" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="54">
@@ -1194,7 +1194,7 @@
         <v>560</v>
       </c>
       <c r="D54" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="55">
@@ -1208,7 +1208,7 @@
         <v>560</v>
       </c>
       <c r="D55" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="56">
@@ -1222,7 +1222,7 @@
         <v>560</v>
       </c>
       <c r="D56" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="57">
@@ -1236,7 +1236,7 @@
         <v>560</v>
       </c>
       <c r="D57" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="58">
@@ -1250,7 +1250,7 @@
         <v>560</v>
       </c>
       <c r="D58" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="59">
@@ -1264,7 +1264,7 @@
         <v>560</v>
       </c>
       <c r="D59" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="60">
@@ -1278,7 +1278,7 @@
         <v>560</v>
       </c>
       <c r="D60" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="61">
@@ -1292,7 +1292,7 @@
         <v>560</v>
       </c>
       <c r="D61" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="62">
@@ -1306,7 +1306,7 @@
         <v>560</v>
       </c>
       <c r="D62" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="63">
@@ -1320,7 +1320,7 @@
         <v>560</v>
       </c>
       <c r="D63" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="64">
@@ -1334,7 +1334,7 @@
         <v>560</v>
       </c>
       <c r="D64" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="65">
@@ -1348,7 +1348,7 @@
         <v>560</v>
       </c>
       <c r="D65" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="66">
@@ -1362,7 +1362,7 @@
         <v>560</v>
       </c>
       <c r="D66" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="67">
@@ -1376,7 +1376,7 @@
         <v>560</v>
       </c>
       <c r="D67" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="68">
@@ -1390,7 +1390,7 @@
         <v>560</v>
       </c>
       <c r="D68" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="69">
@@ -1404,7 +1404,7 @@
         <v>560</v>
       </c>
       <c r="D69" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="70">
@@ -1418,7 +1418,7 @@
         <v>560</v>
       </c>
       <c r="D70" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="71">
@@ -1432,7 +1432,7 @@
         <v>560</v>
       </c>
       <c r="D71" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="72">
@@ -1446,7 +1446,7 @@
         <v>560</v>
       </c>
       <c r="D72" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="73">
@@ -1460,7 +1460,7 @@
         <v>560</v>
       </c>
       <c r="D73" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="74">
@@ -1474,7 +1474,7 @@
         <v>560</v>
       </c>
       <c r="D74" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="75">
@@ -1488,7 +1488,7 @@
         <v>560</v>
       </c>
       <c r="D75" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="76">
@@ -1502,7 +1502,7 @@
         <v>560</v>
       </c>
       <c r="D76" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="77">
@@ -1516,7 +1516,7 @@
         <v>560</v>
       </c>
       <c r="D77" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="78">
@@ -1530,7 +1530,7 @@
         <v>560</v>
       </c>
       <c r="D78" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="79">
@@ -1544,7 +1544,7 @@
         <v>560</v>
       </c>
       <c r="D79" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="80">
@@ -1558,7 +1558,7 @@
         <v>560</v>
       </c>
       <c r="D80" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="81">
@@ -1572,7 +1572,7 @@
         <v>560</v>
       </c>
       <c r="D81" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="82">
@@ -1586,7 +1586,7 @@
         <v>560</v>
       </c>
       <c r="D82" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="83">
@@ -1600,7 +1600,7 @@
         <v>560</v>
       </c>
       <c r="D83" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="84">
@@ -1614,7 +1614,7 @@
         <v>560</v>
       </c>
       <c r="D84" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="85">
@@ -1628,7 +1628,7 @@
         <v>560</v>
       </c>
       <c r="D85" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="86">
@@ -1642,7 +1642,7 @@
         <v>560</v>
       </c>
       <c r="D86" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="87">
@@ -1656,7 +1656,7 @@
         <v>560</v>
       </c>
       <c r="D87" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="88">
@@ -1670,7 +1670,7 @@
         <v>560</v>
       </c>
       <c r="D88" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="89">
@@ -1684,7 +1684,7 @@
         <v>560</v>
       </c>
       <c r="D89" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="90">
@@ -1698,7 +1698,7 @@
         <v>560</v>
       </c>
       <c r="D90" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="91">
@@ -1712,7 +1712,7 @@
         <v>560</v>
       </c>
       <c r="D91" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="92">
@@ -1726,7 +1726,7 @@
         <v>560</v>
       </c>
       <c r="D92" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="93">
@@ -1740,7 +1740,7 @@
         <v>560</v>
       </c>
       <c r="D93" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="94">
@@ -1748,13 +1748,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C94" t="n">
         <v>560</v>
       </c>
       <c r="D94" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="95">
@@ -1768,7 +1768,7 @@
         <v>560</v>
       </c>
       <c r="D95" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="96">
@@ -1782,7 +1782,7 @@
         <v>560</v>
       </c>
       <c r="D96" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="97">
@@ -1796,7 +1796,7 @@
         <v>560</v>
       </c>
       <c r="D97" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="98">
@@ -1810,7 +1810,7 @@
         <v>560</v>
       </c>
       <c r="D98" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="99">
@@ -1824,7 +1824,7 @@
         <v>560</v>
       </c>
       <c r="D99" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="100">
@@ -1838,7 +1838,7 @@
         <v>560</v>
       </c>
       <c r="D100" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="101">
@@ -1852,7 +1852,7 @@
         <v>560</v>
       </c>
       <c r="D101" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="102">
@@ -1866,7 +1866,7 @@
         <v>560</v>
       </c>
       <c r="D102" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="103">
@@ -1880,7 +1880,7 @@
         <v>560</v>
       </c>
       <c r="D103" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="104">
@@ -1894,7 +1894,7 @@
         <v>560</v>
       </c>
       <c r="D104" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="105">
@@ -1908,7 +1908,7 @@
         <v>560</v>
       </c>
       <c r="D105" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="106">
@@ -1922,7 +1922,7 @@
         <v>560</v>
       </c>
       <c r="D106" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="107">
@@ -1936,7 +1936,7 @@
         <v>560</v>
       </c>
       <c r="D107" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="108">
@@ -1950,7 +1950,7 @@
         <v>560</v>
       </c>
       <c r="D108" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="109">
@@ -1964,7 +1964,7 @@
         <v>560</v>
       </c>
       <c r="D109" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="110">
@@ -1978,7 +1978,7 @@
         <v>560</v>
       </c>
       <c r="D110" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="111">
@@ -1992,7 +1992,7 @@
         <v>560</v>
       </c>
       <c r="D111" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="112">
@@ -2006,7 +2006,7 @@
         <v>560</v>
       </c>
       <c r="D112" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="113">
@@ -2020,7 +2020,7 @@
         <v>560</v>
       </c>
       <c r="D113" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="114">
@@ -2034,7 +2034,7 @@
         <v>560</v>
       </c>
       <c r="D114" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="115">
@@ -2048,7 +2048,7 @@
         <v>560</v>
       </c>
       <c r="D115" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="116">
@@ -2062,7 +2062,7 @@
         <v>560</v>
       </c>
       <c r="D116" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="117">
@@ -2076,7 +2076,7 @@
         <v>560</v>
       </c>
       <c r="D117" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="118">
@@ -2090,7 +2090,7 @@
         <v>560</v>
       </c>
       <c r="D118" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="119">
@@ -2104,7 +2104,7 @@
         <v>560</v>
       </c>
       <c r="D119" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="120">
@@ -2118,7 +2118,7 @@
         <v>560</v>
       </c>
       <c r="D120" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="121">
@@ -2132,7 +2132,7 @@
         <v>560</v>
       </c>
       <c r="D121" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="122">
@@ -2146,7 +2146,7 @@
         <v>560</v>
       </c>
       <c r="D122" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="123">
@@ -2160,7 +2160,7 @@
         <v>560</v>
       </c>
       <c r="D123" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="124">
@@ -2174,7 +2174,7 @@
         <v>560</v>
       </c>
       <c r="D124" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="125">
@@ -2188,7 +2188,7 @@
         <v>560</v>
       </c>
       <c r="D125" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="126">
@@ -2202,7 +2202,7 @@
         <v>560</v>
       </c>
       <c r="D126" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="127">
@@ -2216,7 +2216,7 @@
         <v>560</v>
       </c>
       <c r="D127" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="128">
@@ -2230,7 +2230,7 @@
         <v>560</v>
       </c>
       <c r="D128" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="129">
@@ -2244,7 +2244,7 @@
         <v>560</v>
       </c>
       <c r="D129" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="130">
@@ -2258,7 +2258,7 @@
         <v>560</v>
       </c>
       <c r="D130" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="131">
@@ -2272,7 +2272,7 @@
         <v>560</v>
       </c>
       <c r="D131" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="132">
@@ -2286,7 +2286,7 @@
         <v>560</v>
       </c>
       <c r="D132" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="133">
@@ -2300,7 +2300,7 @@
         <v>560</v>
       </c>
       <c r="D133" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="134">
@@ -2314,7 +2314,7 @@
         <v>560</v>
       </c>
       <c r="D134" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="135">
@@ -2328,7 +2328,7 @@
         <v>560</v>
       </c>
       <c r="D135" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="136">
@@ -2342,7 +2342,7 @@
         <v>560</v>
       </c>
       <c r="D136" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="137">
@@ -2356,7 +2356,7 @@
         <v>560</v>
       </c>
       <c r="D137" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="138">
@@ -2370,7 +2370,7 @@
         <v>560</v>
       </c>
       <c r="D138" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="139">
@@ -2384,7 +2384,7 @@
         <v>560</v>
       </c>
       <c r="D139" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="140">
@@ -2398,7 +2398,7 @@
         <v>560</v>
       </c>
       <c r="D140" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="141">
@@ -2412,7 +2412,7 @@
         <v>560</v>
       </c>
       <c r="D141" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="142">
@@ -2426,7 +2426,7 @@
         <v>560</v>
       </c>
       <c r="D142" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="143">
@@ -2440,7 +2440,7 @@
         <v>560</v>
       </c>
       <c r="D143" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="144">
@@ -2454,7 +2454,7 @@
         <v>560</v>
       </c>
       <c r="D144" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="145">
@@ -2468,7 +2468,7 @@
         <v>560</v>
       </c>
       <c r="D145" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="146">
@@ -2482,7 +2482,7 @@
         <v>560</v>
       </c>
       <c r="D146" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="147">
@@ -2496,7 +2496,7 @@
         <v>560</v>
       </c>
       <c r="D147" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="148">
@@ -2510,7 +2510,7 @@
         <v>560</v>
       </c>
       <c r="D148" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="149">
@@ -2524,7 +2524,7 @@
         <v>560</v>
       </c>
       <c r="D149" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="150">
@@ -2538,7 +2538,7 @@
         <v>560</v>
       </c>
       <c r="D150" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="151">
@@ -2552,7 +2552,7 @@
         <v>560</v>
       </c>
       <c r="D151" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="152">
@@ -2566,7 +2566,7 @@
         <v>560</v>
       </c>
       <c r="D152" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="153">
@@ -2580,7 +2580,7 @@
         <v>560</v>
       </c>
       <c r="D153" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="154">
@@ -2594,7 +2594,7 @@
         <v>560</v>
       </c>
       <c r="D154" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="155">
@@ -2608,7 +2608,7 @@
         <v>560</v>
       </c>
       <c r="D155" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="156">
@@ -2622,7 +2622,7 @@
         <v>560</v>
       </c>
       <c r="D156" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="157">
@@ -2636,7 +2636,7 @@
         <v>560</v>
       </c>
       <c r="D157" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="158">
@@ -2650,7 +2650,7 @@
         <v>560</v>
       </c>
       <c r="D158" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="159">
@@ -2664,7 +2664,7 @@
         <v>560</v>
       </c>
       <c r="D159" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="160">
@@ -2678,7 +2678,7 @@
         <v>560</v>
       </c>
       <c r="D160" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="161">
@@ -2692,7 +2692,7 @@
         <v>560</v>
       </c>
       <c r="D161" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="162">
@@ -2706,7 +2706,7 @@
         <v>560</v>
       </c>
       <c r="D162" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="163">
@@ -2720,7 +2720,7 @@
         <v>560</v>
       </c>
       <c r="D163" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="164">
@@ -2734,7 +2734,7 @@
         <v>560</v>
       </c>
       <c r="D164" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="165">
@@ -2748,7 +2748,7 @@
         <v>560</v>
       </c>
       <c r="D165" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="166">
@@ -2762,7 +2762,7 @@
         <v>560</v>
       </c>
       <c r="D166" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="167">
@@ -2776,7 +2776,7 @@
         <v>560</v>
       </c>
       <c r="D167" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="168">
@@ -2790,7 +2790,7 @@
         <v>560</v>
       </c>
       <c r="D168" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="169">
@@ -2804,7 +2804,7 @@
         <v>560</v>
       </c>
       <c r="D169" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="170">
@@ -2818,7 +2818,7 @@
         <v>560</v>
       </c>
       <c r="D170" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="171">
@@ -2826,13 +2826,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C171" t="n">
         <v>560</v>
       </c>
       <c r="D171" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="172">
@@ -2846,7 +2846,7 @@
         <v>560</v>
       </c>
       <c r="D172" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="173">
@@ -2860,7 +2860,7 @@
         <v>560</v>
       </c>
       <c r="D173" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="174">
@@ -2874,7 +2874,7 @@
         <v>560</v>
       </c>
       <c r="D174" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="175">
@@ -2888,7 +2888,7 @@
         <v>560</v>
       </c>
       <c r="D175" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="176">
@@ -2902,7 +2902,7 @@
         <v>560</v>
       </c>
       <c r="D176" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="177">
@@ -2916,7 +2916,7 @@
         <v>560</v>
       </c>
       <c r="D177" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="178">
@@ -2930,7 +2930,7 @@
         <v>560</v>
       </c>
       <c r="D178" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="179">
@@ -2944,7 +2944,7 @@
         <v>560</v>
       </c>
       <c r="D179" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="180">
@@ -2958,7 +2958,7 @@
         <v>560</v>
       </c>
       <c r="D180" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="181">
@@ -2972,7 +2972,7 @@
         <v>560</v>
       </c>
       <c r="D181" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="182">
@@ -2986,7 +2986,7 @@
         <v>560</v>
       </c>
       <c r="D182" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="183">
@@ -3000,7 +3000,7 @@
         <v>560</v>
       </c>
       <c r="D183" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="184">
@@ -3014,7 +3014,7 @@
         <v>560</v>
       </c>
       <c r="D184" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="185">
@@ -3028,7 +3028,7 @@
         <v>560</v>
       </c>
       <c r="D185" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="186">
@@ -3042,7 +3042,7 @@
         <v>560</v>
       </c>
       <c r="D186" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="187">
@@ -3056,7 +3056,7 @@
         <v>560</v>
       </c>
       <c r="D187" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="188">
@@ -3070,7 +3070,7 @@
         <v>560</v>
       </c>
       <c r="D188" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="189">
@@ -3084,7 +3084,7 @@
         <v>560</v>
       </c>
       <c r="D189" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="190">
@@ -3098,7 +3098,7 @@
         <v>560</v>
       </c>
       <c r="D190" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="191">
@@ -3112,7 +3112,7 @@
         <v>560</v>
       </c>
       <c r="D191" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="192">
@@ -3126,7 +3126,7 @@
         <v>560</v>
       </c>
       <c r="D192" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="193">
@@ -3140,7 +3140,7 @@
         <v>560</v>
       </c>
       <c r="D193" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="194">
@@ -3154,7 +3154,7 @@
         <v>560</v>
       </c>
       <c r="D194" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="195">
@@ -3168,7 +3168,7 @@
         <v>560</v>
       </c>
       <c r="D195" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="196">
@@ -3182,7 +3182,7 @@
         <v>560</v>
       </c>
       <c r="D196" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="197">
@@ -3196,7 +3196,7 @@
         <v>560</v>
       </c>
       <c r="D197" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="198">
@@ -3210,7 +3210,7 @@
         <v>560</v>
       </c>
       <c r="D198" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="199">
@@ -3224,7 +3224,7 @@
         <v>560</v>
       </c>
       <c r="D199" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="200">
@@ -3238,7 +3238,7 @@
         <v>560</v>
       </c>
       <c r="D200" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="201">
@@ -3252,7 +3252,7 @@
         <v>560</v>
       </c>
       <c r="D201" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="202">
@@ -3266,7 +3266,7 @@
         <v>560</v>
       </c>
       <c r="D202" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="203">
@@ -3280,7 +3280,7 @@
         <v>560</v>
       </c>
       <c r="D203" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="204">
@@ -3294,7 +3294,7 @@
         <v>560</v>
       </c>
       <c r="D204" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="205">
@@ -3308,7 +3308,7 @@
         <v>560</v>
       </c>
       <c r="D205" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="206">
@@ -3322,7 +3322,7 @@
         <v>560</v>
       </c>
       <c r="D206" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="207">
@@ -3336,7 +3336,7 @@
         <v>560</v>
       </c>
       <c r="D207" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="208">
@@ -3350,7 +3350,7 @@
         <v>560</v>
       </c>
       <c r="D208" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="209">
@@ -3364,7 +3364,7 @@
         <v>560</v>
       </c>
       <c r="D209" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="210">
@@ -3378,7 +3378,7 @@
         <v>560</v>
       </c>
       <c r="D210" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="211">
@@ -3392,7 +3392,7 @@
         <v>560</v>
       </c>
       <c r="D211" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="212">
@@ -3406,7 +3406,7 @@
         <v>560</v>
       </c>
       <c r="D212" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="213">
@@ -3420,7 +3420,7 @@
         <v>560</v>
       </c>
       <c r="D213" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="214">
@@ -3434,7 +3434,7 @@
         <v>560</v>
       </c>
       <c r="D214" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="215">
@@ -3448,7 +3448,7 @@
         <v>560</v>
       </c>
       <c r="D215" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="216">
@@ -3462,7 +3462,7 @@
         <v>560</v>
       </c>
       <c r="D216" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="217">
@@ -3476,7 +3476,7 @@
         <v>560</v>
       </c>
       <c r="D217" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="218">
@@ -3490,7 +3490,7 @@
         <v>560</v>
       </c>
       <c r="D218" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="219">
@@ -3504,7 +3504,7 @@
         <v>560</v>
       </c>
       <c r="D219" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="220">
@@ -3518,7 +3518,7 @@
         <v>560</v>
       </c>
       <c r="D220" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="221">
@@ -3532,7 +3532,7 @@
         <v>560</v>
       </c>
       <c r="D221" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="222">
@@ -3546,7 +3546,7 @@
         <v>560</v>
       </c>
       <c r="D222" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="223">
@@ -3560,7 +3560,7 @@
         <v>560</v>
       </c>
       <c r="D223" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="224">
@@ -3574,7 +3574,7 @@
         <v>560</v>
       </c>
       <c r="D224" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="225">
@@ -3588,7 +3588,7 @@
         <v>560</v>
       </c>
       <c r="D225" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="226">
@@ -3602,7 +3602,7 @@
         <v>560</v>
       </c>
       <c r="D226" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="227">
@@ -3616,7 +3616,7 @@
         <v>560</v>
       </c>
       <c r="D227" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="228">
@@ -3630,7 +3630,7 @@
         <v>560</v>
       </c>
       <c r="D228" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="229">
@@ -3644,7 +3644,7 @@
         <v>560</v>
       </c>
       <c r="D229" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="230">
@@ -3658,7 +3658,7 @@
         <v>560</v>
       </c>
       <c r="D230" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="231">
@@ -3672,7 +3672,7 @@
         <v>560</v>
       </c>
       <c r="D231" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="232">
@@ -3686,7 +3686,7 @@
         <v>560</v>
       </c>
       <c r="D232" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="233">
@@ -3700,7 +3700,7 @@
         <v>560</v>
       </c>
       <c r="D233" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="234">
@@ -3714,7 +3714,7 @@
         <v>560</v>
       </c>
       <c r="D234" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="235">
@@ -3728,7 +3728,7 @@
         <v>560</v>
       </c>
       <c r="D235" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="236">
@@ -3742,7 +3742,7 @@
         <v>560</v>
       </c>
       <c r="D236" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="237">
@@ -3756,7 +3756,7 @@
         <v>560</v>
       </c>
       <c r="D237" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="238">
@@ -3770,7 +3770,7 @@
         <v>560</v>
       </c>
       <c r="D238" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="239">
@@ -3784,7 +3784,7 @@
         <v>560</v>
       </c>
       <c r="D239" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="240">
@@ -3798,7 +3798,7 @@
         <v>560</v>
       </c>
       <c r="D240" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="241">
@@ -3812,7 +3812,7 @@
         <v>560</v>
       </c>
       <c r="D241" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="242">
@@ -3826,7 +3826,7 @@
         <v>560</v>
       </c>
       <c r="D242" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="243">
@@ -3840,7 +3840,7 @@
         <v>560</v>
       </c>
       <c r="D243" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="244">
@@ -3854,7 +3854,7 @@
         <v>560</v>
       </c>
       <c r="D244" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="245">
@@ -3868,7 +3868,7 @@
         <v>560</v>
       </c>
       <c r="D245" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="246">
@@ -3882,7 +3882,7 @@
         <v>560</v>
       </c>
       <c r="D246" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="247">
@@ -3896,7 +3896,7 @@
         <v>560</v>
       </c>
       <c r="D247" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="248">
@@ -3910,7 +3910,7 @@
         <v>560</v>
       </c>
       <c r="D248" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="249">
@@ -3924,7 +3924,7 @@
         <v>560</v>
       </c>
       <c r="D249" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="250">
@@ -3938,7 +3938,7 @@
         <v>560</v>
       </c>
       <c r="D250" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="251">
@@ -3952,7 +3952,7 @@
         <v>560</v>
       </c>
       <c r="D251" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="252">
@@ -3966,7 +3966,7 @@
         <v>560</v>
       </c>
       <c r="D252" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="253">
@@ -3980,7 +3980,7 @@
         <v>560</v>
       </c>
       <c r="D253" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="254">
@@ -3994,7 +3994,7 @@
         <v>560</v>
       </c>
       <c r="D254" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="255">
@@ -4008,7 +4008,7 @@
         <v>560</v>
       </c>
       <c r="D255" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="256">
@@ -4022,7 +4022,7 @@
         <v>560</v>
       </c>
       <c r="D256" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="257">
@@ -4036,7 +4036,7 @@
         <v>560</v>
       </c>
       <c r="D257" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="258">
@@ -4050,7 +4050,7 @@
         <v>560</v>
       </c>
       <c r="D258" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="259">
@@ -4064,7 +4064,7 @@
         <v>560</v>
       </c>
       <c r="D259" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="260">
@@ -4078,7 +4078,7 @@
         <v>560</v>
       </c>
       <c r="D260" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="261">
@@ -4092,7 +4092,7 @@
         <v>560</v>
       </c>
       <c r="D261" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="262">
@@ -4106,7 +4106,7 @@
         <v>560</v>
       </c>
       <c r="D262" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="263">
@@ -4120,7 +4120,7 @@
         <v>560</v>
       </c>
       <c r="D263" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="264">
@@ -4134,7 +4134,7 @@
         <v>560</v>
       </c>
       <c r="D264" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="265">
@@ -4148,7 +4148,7 @@
         <v>560</v>
       </c>
       <c r="D265" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="266">
@@ -4162,7 +4162,7 @@
         <v>560</v>
       </c>
       <c r="D266" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="267">
@@ -4176,7 +4176,7 @@
         <v>560</v>
       </c>
       <c r="D267" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="268">
@@ -4190,7 +4190,7 @@
         <v>560</v>
       </c>
       <c r="D268" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="269">
@@ -4204,7 +4204,7 @@
         <v>560</v>
       </c>
       <c r="D269" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="270">
@@ -4218,7 +4218,7 @@
         <v>560</v>
       </c>
       <c r="D270" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="271">
@@ -4232,7 +4232,7 @@
         <v>560</v>
       </c>
       <c r="D271" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="272">
@@ -4246,7 +4246,7 @@
         <v>560</v>
       </c>
       <c r="D272" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="273">
@@ -4260,7 +4260,7 @@
         <v>560</v>
       </c>
       <c r="D273" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="274">
@@ -4268,13 +4268,13 @@
         <v>273</v>
       </c>
       <c r="B274" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C274" t="n">
         <v>560</v>
       </c>
       <c r="D274" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="275">
@@ -4288,7 +4288,7 @@
         <v>560</v>
       </c>
       <c r="D275" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="276">
@@ -4302,7 +4302,7 @@
         <v>560</v>
       </c>
       <c r="D276" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="277">
@@ -4316,7 +4316,7 @@
         <v>560</v>
       </c>
       <c r="D277" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="278">
@@ -4330,7 +4330,7 @@
         <v>560</v>
       </c>
       <c r="D278" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="279">
@@ -4344,7 +4344,7 @@
         <v>560</v>
       </c>
       <c r="D279" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="280">
@@ -4358,7 +4358,7 @@
         <v>560</v>
       </c>
       <c r="D280" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="281">
@@ -4372,7 +4372,7 @@
         <v>560</v>
       </c>
       <c r="D281" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="282">
@@ -4386,7 +4386,7 @@
         <v>560</v>
       </c>
       <c r="D282" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="283">
@@ -4400,7 +4400,7 @@
         <v>560</v>
       </c>
       <c r="D283" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="284">
@@ -4414,7 +4414,7 @@
         <v>560</v>
       </c>
       <c r="D284" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="285">
@@ -4428,7 +4428,7 @@
         <v>560</v>
       </c>
       <c r="D285" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="286">
@@ -4442,7 +4442,7 @@
         <v>560</v>
       </c>
       <c r="D286" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="287">
@@ -4456,7 +4456,7 @@
         <v>560</v>
       </c>
       <c r="D287" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="288">
@@ -4470,7 +4470,7 @@
         <v>560</v>
       </c>
       <c r="D288" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="289">
@@ -4484,7 +4484,7 @@
         <v>560</v>
       </c>
       <c r="D289" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="290">
@@ -4498,7 +4498,7 @@
         <v>560</v>
       </c>
       <c r="D290" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="291">
@@ -4512,7 +4512,7 @@
         <v>560</v>
       </c>
       <c r="D291" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="292">
@@ -4526,7 +4526,7 @@
         <v>560</v>
       </c>
       <c r="D292" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="293">
@@ -4540,7 +4540,7 @@
         <v>560</v>
       </c>
       <c r="D293" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="294">
@@ -4554,7 +4554,7 @@
         <v>560</v>
       </c>
       <c r="D294" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="295">
@@ -4568,7 +4568,7 @@
         <v>560</v>
       </c>
       <c r="D295" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="296">
@@ -4582,7 +4582,7 @@
         <v>560</v>
       </c>
       <c r="D296" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="297">
@@ -4596,7 +4596,7 @@
         <v>560</v>
       </c>
       <c r="D297" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="298">
@@ -4610,7 +4610,7 @@
         <v>560</v>
       </c>
       <c r="D298" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="299">
@@ -4624,7 +4624,7 @@
         <v>560</v>
       </c>
       <c r="D299" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="300">
@@ -4638,7 +4638,7 @@
         <v>560</v>
       </c>
       <c r="D300" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="301">
@@ -4652,7 +4652,7 @@
         <v>560</v>
       </c>
       <c r="D301" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
   </sheetData>
